--- a/Criptos/SOL.xlsx
+++ b/Criptos/SOL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Trabalho em Grupo M3\Solana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\cripto\Analise-Criptomoedas\Criptos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE81B90-DEAE-4C95-BFA1-16E7E8E428EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A47D00-9F5C-4BCB-9B57-E23CE04A45BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AEA8844-A957-46C3-8137-B34DCFCC5393}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{0AEA8844-A957-46C3-8137-B34DCFCC5393}"/>
   </bookViews>
   <sheets>
     <sheet name="coin_Solana" sheetId="2" r:id="rId1"/>
@@ -45,21 +45,6 @@
     <t>Símbolo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>SOL</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>Mínima</t>
+  </si>
+  <si>
+    <t>Abertura</t>
+  </si>
+  <si>
+    <t>Fechamento</t>
   </si>
 </sst>
 </file>
@@ -179,11 +179,11 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3FB5C87B-DC9D-4E81-83D5-DFD8A9532E99}" uniqueName="1" name="Nome" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{D7DAE8B4-6CBB-4D1C-A71D-AB5EE348417F}" uniqueName="2" name="Símbolo" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{21FEFE91-FA93-4BDC-AE16-C3ADB2349C5E}" uniqueName="3" name="Date" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DE8A6C20-274B-402A-AABE-65EACD51EFCC}" uniqueName="4" name="High" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0C92404E-A5D5-4273-80B5-DC319D6936B0}" uniqueName="5" name="Low" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4797973D-F3D5-4346-8219-850DCEDC048D}" uniqueName="6" name="Open" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{86942F1B-E8EB-4CD1-A326-DABFFFEF6740}" uniqueName="7" name="Close" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{21FEFE91-FA93-4BDC-AE16-C3ADB2349C5E}" uniqueName="3" name="Data" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DE8A6C20-274B-402A-AABE-65EACD51EFCC}" uniqueName="4" name="Máxima" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0C92404E-A5D5-4273-80B5-DC319D6936B0}" uniqueName="5" name="Mínima" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4797973D-F3D5-4346-8219-850DCEDC048D}" uniqueName="6" name="Abertura" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{86942F1B-E8EB-4CD1-A326-DABFFFEF6740}" uniqueName="7" name="Fechamento" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{0F8DEA1D-6958-49C6-A732-FAB589C2F04D}" uniqueName="8" name="Volume" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{8FB6BB16-5B7B-44E4-921D-02B26A46A009}" uniqueName="9" name="Marketcap" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,33 +512,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>43932</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>43933</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>43934</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>43935</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>43936</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>43937</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>43938</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>43939</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>43940</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>43941</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>43942</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>43943</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>43944</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>43945</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>43946</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>43947</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>43948</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>43949</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>43950</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>43951</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>43952</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>43953</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>43954</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>43955</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>43956</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>43957</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>43958</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>43959</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>43960</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>43961</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>43962</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>43963</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>43964</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>43965</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
         <v>43966</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
         <v>43967</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>43968</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
         <v>43969</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>43970</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
         <v>43971</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>43972</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>43973</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
         <v>43974</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
         <v>43975</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
         <v>43976</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>43977</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
         <v>43978</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>43979</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
         <v>43980</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>43981</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
         <v>43982</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
         <v>43983</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>43984</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>43985</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>43986</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>43987</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
         <v>43988</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
         <v>43989</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
         <v>43990</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
         <v>43991</v>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>43992</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>43993</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>43994</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
         <v>43995</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>43996</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>43997</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <v>43998</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>43999</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>44000</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>44001</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1">
         <v>44002</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>44003</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
         <v>44004</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>44005</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>44006</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
         <v>44007</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
         <v>44008</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>44009</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
         <v>44010</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>44011</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
         <v>44012</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>44013</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <v>44014</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>44015</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
         <v>44016</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
         <v>44017</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>44018</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1">
         <v>44019</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1">
         <v>44020</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>44021</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
         <v>44022</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
         <v>44023</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
         <v>44024</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1">
         <v>44025</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1">
         <v>44026</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
         <v>44027</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1">
         <v>44028</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1">
         <v>44029</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1">
         <v>44030</v>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1">
         <v>44031</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
         <v>44032</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>44033</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1">
         <v>44034</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1">
         <v>44035</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1">
         <v>44036</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1">
         <v>44037</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C108" s="1">
         <v>44038</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1">
         <v>44039</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C110" s="1">
         <v>44040</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C111" s="1">
         <v>44041</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C112" s="1">
         <v>44042</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1">
         <v>44043</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1">
         <v>44044</v>
@@ -3812,10 +3812,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1">
         <v>44045</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1">
         <v>44046</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1">
         <v>44047</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1">
         <v>44048</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1">
         <v>44049</v>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1">
         <v>44050</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1">
         <v>44051</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1">
         <v>44052</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1">
         <v>44053</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1">
         <v>44054</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C125" s="1">
         <v>44055</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1">
         <v>44056</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1">
         <v>44057</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1">
         <v>44058</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1">
         <v>44059</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1">
         <v>44060</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C131" s="1">
         <v>44061</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C132" s="1">
         <v>44062</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C133" s="1">
         <v>44063</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1">
         <v>44064</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C135" s="1">
         <v>44065</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C136" s="1">
         <v>44066</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1">
         <v>44067</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C138" s="1">
         <v>44068</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C139" s="1">
         <v>44069</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C140" s="1">
         <v>44070</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141" s="1">
         <v>44071</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1">
         <v>44072</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
         <v>44073</v>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C144" s="1">
         <v>44074</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C145" s="1">
         <v>44075</v>
@@ -4711,10 +4711,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C146" s="1">
         <v>44076</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1">
         <v>44077</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1">
         <v>44078</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1">
         <v>44079</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1">
         <v>44080</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1">
         <v>44081</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C152" s="1">
         <v>44082</v>
@@ -4914,10 +4914,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1">
         <v>44083</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1">
         <v>44084</v>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C155" s="1">
         <v>44085</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1">
         <v>44086</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C157" s="1">
         <v>44087</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C158" s="1">
         <v>44088</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C159" s="1">
         <v>44089</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1">
         <v>44090</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1">
         <v>44091</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1">
         <v>44092</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1">
         <v>44093</v>
@@ -5233,10 +5233,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1">
         <v>44094</v>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1">
         <v>44095</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1">
         <v>44096</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1">
         <v>44097</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1">
         <v>44098</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1">
         <v>44099</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1">
         <v>44100</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C171" s="1">
         <v>44101</v>
@@ -5465,10 +5465,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C172" s="1">
         <v>44102</v>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1">
         <v>44103</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1">
         <v>44104</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1">
         <v>44105</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1">
         <v>44106</v>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C177" s="1">
         <v>44107</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C178" s="1">
         <v>44108</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1">
         <v>44109</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1">
         <v>44110</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C181" s="1">
         <v>44111</v>
@@ -5755,10 +5755,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C182" s="1">
         <v>44112</v>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C183" s="1">
         <v>44113</v>
@@ -5813,10 +5813,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C184" s="1">
         <v>44114</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C185" s="1">
         <v>44115</v>
@@ -5871,10 +5871,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C186" s="1">
         <v>44116</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C187" s="1">
         <v>44117</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1">
         <v>44118</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189" s="1">
         <v>44119</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C190" s="1">
         <v>44120</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C191" s="1">
         <v>44121</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C192" s="1">
         <v>44122</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" s="1">
         <v>44123</v>
@@ -6103,10 +6103,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C194" s="1">
         <v>44124</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1">
         <v>44125</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C196" s="1">
         <v>44126</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C197" s="1">
         <v>44127</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C198" s="1">
         <v>44128</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C199" s="1">
         <v>44129</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C200" s="1">
         <v>44130</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C201" s="1">
         <v>44131</v>
@@ -6335,10 +6335,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C202" s="1">
         <v>44132</v>
@@ -6364,10 +6364,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C203" s="1">
         <v>44133</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C204" s="1">
         <v>44134</v>
@@ -6422,10 +6422,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C205" s="1">
         <v>44135</v>
@@ -6451,10 +6451,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C206" s="1">
         <v>44136</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C207" s="1">
         <v>44137</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C208" s="1">
         <v>44138</v>
@@ -6538,10 +6538,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C209" s="1">
         <v>44139</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C210" s="1">
         <v>44140</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C211" s="1">
         <v>44141</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C212" s="1">
         <v>44142</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213" s="1">
         <v>44143</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C214" s="1">
         <v>44144</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C215" s="1">
         <v>44145</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C216" s="1">
         <v>44146</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C217" s="1">
         <v>44147</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C218" s="1">
         <v>44148</v>
@@ -6828,10 +6828,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C219" s="1">
         <v>44149</v>
@@ -6857,10 +6857,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C220" s="1">
         <v>44150</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C221" s="1">
         <v>44151</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C222" s="1">
         <v>44152</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C223" s="1">
         <v>44153</v>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C224" s="1">
         <v>44154</v>
@@ -7002,10 +7002,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C225" s="1">
         <v>44155</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C226" s="1">
         <v>44156</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C227" s="1">
         <v>44157</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C228" s="1">
         <v>44158</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C229" s="1">
         <v>44159</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C230" s="1">
         <v>44160</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C231" s="1">
         <v>44161</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C232" s="1">
         <v>44162</v>
@@ -7234,10 +7234,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C233" s="1">
         <v>44163</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C234" s="1">
         <v>44164</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C235" s="1">
         <v>44165</v>
@@ -7321,10 +7321,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C236" s="1">
         <v>44166</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237" s="1">
         <v>44167</v>
@@ -7379,10 +7379,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C238" s="1">
         <v>44168</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C239" s="1">
         <v>44169</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C240" s="1">
         <v>44170</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C241" s="1">
         <v>44171</v>
@@ -7495,10 +7495,10 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C242" s="1">
         <v>44172</v>
@@ -7524,10 +7524,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C243" s="1">
         <v>44173</v>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C244" s="1">
         <v>44174</v>
@@ -7582,10 +7582,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C245" s="1">
         <v>44175</v>
@@ -7611,10 +7611,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C246" s="1">
         <v>44176</v>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C247" s="1">
         <v>44177</v>
@@ -7669,10 +7669,10 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C248" s="1">
         <v>44178</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C249" s="1">
         <v>44179</v>
@@ -7727,10 +7727,10 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C250" s="1">
         <v>44180</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C251" s="1">
         <v>44181</v>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C252" s="1">
         <v>44182</v>
@@ -7814,10 +7814,10 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C253" s="1">
         <v>44183</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C254" s="1">
         <v>44184</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C255" s="1">
         <v>44185</v>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C256" s="1">
         <v>44186</v>
@@ -7930,10 +7930,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C257" s="1">
         <v>44187</v>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C258" s="1">
         <v>44188</v>
@@ -7988,10 +7988,10 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C259" s="1">
         <v>44189</v>
@@ -8017,10 +8017,10 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C260" s="1">
         <v>44190</v>
@@ -8046,10 +8046,10 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261" s="1">
         <v>44191</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C262" s="1">
         <v>44192</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C263" s="1">
         <v>44193</v>
@@ -8133,10 +8133,10 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C264" s="1">
         <v>44194</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C265" s="1">
         <v>44195</v>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C266" s="1">
         <v>44196</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C267" s="1">
         <v>44197</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C268" s="1">
         <v>44198</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C269" s="1">
         <v>44199</v>
@@ -8307,10 +8307,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C270" s="1">
         <v>44200</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C271" s="1">
         <v>44201</v>
@@ -8365,10 +8365,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C272" s="1">
         <v>44202</v>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C273" s="1">
         <v>44203</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C274" s="1">
         <v>44204</v>
@@ -8452,10 +8452,10 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C275" s="1">
         <v>44205</v>
@@ -8481,10 +8481,10 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C276" s="1">
         <v>44206</v>
@@ -8510,10 +8510,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C277" s="1">
         <v>44207</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C278" s="1">
         <v>44208</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C279" s="1">
         <v>44209</v>
@@ -8597,10 +8597,10 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C280" s="1">
         <v>44210</v>
@@ -8626,10 +8626,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C281" s="1">
         <v>44211</v>
@@ -8655,10 +8655,10 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C282" s="1">
         <v>44212</v>
@@ -8684,10 +8684,10 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C283" s="1">
         <v>44213</v>
@@ -8713,10 +8713,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C284" s="1">
         <v>44214</v>
@@ -8742,10 +8742,10 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285" s="1">
         <v>44215</v>
@@ -8771,10 +8771,10 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C286" s="1">
         <v>44216</v>
@@ -8800,10 +8800,10 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C287" s="1">
         <v>44217</v>
@@ -8829,10 +8829,10 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C288" s="1">
         <v>44218</v>
@@ -8858,10 +8858,10 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C289" s="1">
         <v>44219</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C290" s="1">
         <v>44220</v>
@@ -8916,10 +8916,10 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C291" s="1">
         <v>44221</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C292" s="1">
         <v>44222</v>
@@ -8974,10 +8974,10 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C293" s="1">
         <v>44223</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C294" s="1">
         <v>44224</v>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C295" s="1">
         <v>44225</v>
@@ -9061,10 +9061,10 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C296" s="1">
         <v>44226</v>
@@ -9090,10 +9090,10 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C297" s="1">
         <v>44227</v>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C298" s="1">
         <v>44228</v>
@@ -9148,10 +9148,10 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C299" s="1">
         <v>44229</v>
@@ -9177,10 +9177,10 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C300" s="1">
         <v>44230</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C301" s="1">
         <v>44231</v>
@@ -9235,10 +9235,10 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C302" s="1">
         <v>44232</v>
@@ -9264,10 +9264,10 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C303" s="1">
         <v>44233</v>
@@ -9293,10 +9293,10 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C304" s="1">
         <v>44234</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C305" s="1">
         <v>44235</v>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C306" s="1">
         <v>44236</v>
@@ -9380,10 +9380,10 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C307" s="1">
         <v>44237</v>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C308" s="1">
         <v>44238</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309" s="1">
         <v>44239</v>
@@ -9467,10 +9467,10 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C310" s="1">
         <v>44240</v>
@@ -9496,10 +9496,10 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C311" s="1">
         <v>44241</v>
@@ -9525,10 +9525,10 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C312" s="1">
         <v>44242</v>
@@ -9554,10 +9554,10 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C313" s="1">
         <v>44243</v>
@@ -9583,10 +9583,10 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C314" s="1">
         <v>44244</v>
@@ -9612,10 +9612,10 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C315" s="1">
         <v>44245</v>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C316" s="1">
         <v>44246</v>
@@ -9670,10 +9670,10 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C317" s="1">
         <v>44247</v>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C318" s="1">
         <v>44248</v>
@@ -9728,10 +9728,10 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C319" s="1">
         <v>44249</v>
@@ -9757,10 +9757,10 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C320" s="1">
         <v>44250</v>
@@ -9786,10 +9786,10 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C321" s="1">
         <v>44251</v>
@@ -9815,10 +9815,10 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C322" s="1">
         <v>44252</v>
@@ -9844,10 +9844,10 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C323" s="1">
         <v>44253</v>
@@ -9873,10 +9873,10 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C324" s="1">
         <v>44254</v>
@@ -9902,10 +9902,10 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C325" s="1">
         <v>44255</v>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C326" s="1">
         <v>44256</v>
@@ -9960,10 +9960,10 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C327" s="1">
         <v>44257</v>
@@ -9989,10 +9989,10 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C328" s="1">
         <v>44258</v>
@@ -10018,10 +10018,10 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C329" s="1">
         <v>44259</v>
@@ -10047,10 +10047,10 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C330" s="1">
         <v>44260</v>
@@ -10076,10 +10076,10 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C331" s="1">
         <v>44261</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C332" s="1">
         <v>44262</v>
@@ -10134,10 +10134,10 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333" s="1">
         <v>44263</v>
@@ -10163,10 +10163,10 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C334" s="1">
         <v>44264</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C335" s="1">
         <v>44265</v>
@@ -10221,10 +10221,10 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C336" s="1">
         <v>44266</v>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C337" s="1">
         <v>44267</v>
@@ -10279,10 +10279,10 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C338" s="1">
         <v>44268</v>
@@ -10308,10 +10308,10 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C339" s="1">
         <v>44269</v>
@@ -10337,10 +10337,10 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C340" s="1">
         <v>44270</v>
@@ -10366,10 +10366,10 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C341" s="1">
         <v>44271</v>
@@ -10395,10 +10395,10 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C342" s="1">
         <v>44272</v>
@@ -10424,10 +10424,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C343" s="1">
         <v>44273</v>
@@ -10453,10 +10453,10 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C344" s="1">
         <v>44274</v>
@@ -10482,10 +10482,10 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C345" s="1">
         <v>44275</v>
@@ -10511,10 +10511,10 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C346" s="1">
         <v>44276</v>
@@ -10540,10 +10540,10 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C347" s="1">
         <v>44277</v>
@@ -10569,10 +10569,10 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C348" s="1">
         <v>44278</v>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C349" s="1">
         <v>44279</v>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C350" s="1">
         <v>44280</v>
@@ -10656,10 +10656,10 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C351" s="1">
         <v>44281</v>
@@ -10685,10 +10685,10 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C352" s="1">
         <v>44282</v>
@@ -10714,10 +10714,10 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C353" s="1">
         <v>44283</v>
@@ -10743,10 +10743,10 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C354" s="1">
         <v>44284</v>
@@ -10772,10 +10772,10 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C355" s="1">
         <v>44285</v>
@@ -10801,10 +10801,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C356" s="1">
         <v>44286</v>
@@ -10830,10 +10830,10 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C357" s="1">
         <v>44287</v>
@@ -10859,10 +10859,10 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C358" s="1">
         <v>44288</v>
@@ -10888,10 +10888,10 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C359" s="1">
         <v>44289</v>
@@ -10917,10 +10917,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C360" s="1">
         <v>44290</v>
@@ -10946,10 +10946,10 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C361" s="1">
         <v>44291</v>
@@ -10975,10 +10975,10 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C362" s="1">
         <v>44292</v>
@@ -11004,10 +11004,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C363" s="1">
         <v>44293</v>
@@ -11033,10 +11033,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C364" s="1">
         <v>44294</v>
@@ -11062,10 +11062,10 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C365" s="1">
         <v>44295</v>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C366" s="1">
         <v>44296</v>
@@ -11120,10 +11120,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C367" s="1">
         <v>44297</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C368" s="1">
         <v>44298</v>
@@ -11178,10 +11178,10 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C369" s="1">
         <v>44299</v>
@@ -11207,10 +11207,10 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C370" s="1">
         <v>44300</v>
@@ -11236,10 +11236,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C371" s="1">
         <v>44301</v>
@@ -11265,10 +11265,10 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C372" s="1">
         <v>44302</v>
@@ -11294,10 +11294,10 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C373" s="1">
         <v>44303</v>
@@ -11323,10 +11323,10 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C374" s="1">
         <v>44304</v>
@@ -11352,10 +11352,10 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C375" s="1">
         <v>44305</v>
@@ -11381,10 +11381,10 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C376" s="1">
         <v>44306</v>
@@ -11410,10 +11410,10 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C377" s="1">
         <v>44307</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C378" s="1">
         <v>44308</v>
@@ -11468,10 +11468,10 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C379" s="1">
         <v>44309</v>
@@ -11497,10 +11497,10 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C380" s="1">
         <v>44310</v>
@@ -11526,10 +11526,10 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C381" s="1">
         <v>44311</v>
@@ -11555,10 +11555,10 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C382" s="1">
         <v>44312</v>
@@ -11584,10 +11584,10 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C383" s="1">
         <v>44313</v>
@@ -11613,10 +11613,10 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C384" s="1">
         <v>44314</v>
@@ -11642,10 +11642,10 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C385" s="1">
         <v>44315</v>
@@ -11671,10 +11671,10 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C386" s="1">
         <v>44316</v>
@@ -11700,10 +11700,10 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C387" s="1">
         <v>44317</v>
@@ -11729,10 +11729,10 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C388" s="1">
         <v>44318</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C389" s="1">
         <v>44319</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C390" s="1">
         <v>44320</v>
@@ -11816,10 +11816,10 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C391" s="1">
         <v>44321</v>
@@ -11845,10 +11845,10 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C392" s="1">
         <v>44322</v>
@@ -11874,10 +11874,10 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C393" s="1">
         <v>44323</v>
@@ -11903,10 +11903,10 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C394" s="1">
         <v>44324</v>
@@ -11932,10 +11932,10 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C395" s="1">
         <v>44325</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C396" s="1">
         <v>44326</v>
@@ -11990,10 +11990,10 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C397" s="1">
         <v>44327</v>
@@ -12019,10 +12019,10 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C398" s="1">
         <v>44328</v>
@@ -12048,10 +12048,10 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C399" s="1">
         <v>44329</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C400" s="1">
         <v>44330</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C401" s="1">
         <v>44331</v>
@@ -12135,10 +12135,10 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C402" s="1">
         <v>44332</v>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C403" s="1">
         <v>44333</v>
@@ -12193,10 +12193,10 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C404" s="1">
         <v>44334</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C405" s="1">
         <v>44335</v>
@@ -12251,10 +12251,10 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C406" s="1">
         <v>44336</v>
@@ -12280,10 +12280,10 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C407" s="1">
         <v>44337</v>
@@ -12309,10 +12309,10 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C408" s="1">
         <v>44338</v>
@@ -12338,10 +12338,10 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C409" s="1">
         <v>44339</v>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C410" s="1">
         <v>44340</v>
@@ -12396,10 +12396,10 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C411" s="1">
         <v>44341</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C412" s="1">
         <v>44342</v>
@@ -12454,10 +12454,10 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C413" s="1">
         <v>44343</v>
@@ -12483,10 +12483,10 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C414" s="1">
         <v>44344</v>
@@ -12512,10 +12512,10 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C415" s="1">
         <v>44345</v>
@@ -12541,10 +12541,10 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C416" s="1">
         <v>44346</v>
@@ -12570,10 +12570,10 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C417" s="1">
         <v>44347</v>
@@ -12599,10 +12599,10 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C418" s="1">
         <v>44348</v>
@@ -12628,10 +12628,10 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C419" s="1">
         <v>44349</v>
@@ -12657,10 +12657,10 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C420" s="1">
         <v>44350</v>
@@ -12686,10 +12686,10 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C421" s="1">
         <v>44351</v>
@@ -12715,10 +12715,10 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C422" s="1">
         <v>44352</v>
@@ -12744,10 +12744,10 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C423" s="1">
         <v>44353</v>
@@ -12773,10 +12773,10 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C424" s="1">
         <v>44354</v>
@@ -12802,10 +12802,10 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C425" s="1">
         <v>44355</v>
@@ -12831,10 +12831,10 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C426" s="1">
         <v>44356</v>
@@ -12860,10 +12860,10 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C427" s="1">
         <v>44357</v>
@@ -12889,10 +12889,10 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C428" s="1">
         <v>44358</v>
@@ -12918,10 +12918,10 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C429" s="1">
         <v>44359</v>
@@ -12947,10 +12947,10 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C430" s="1">
         <v>44360</v>
@@ -12976,10 +12976,10 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C431" s="1">
         <v>44361</v>
@@ -13005,10 +13005,10 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C432" s="1">
         <v>44362</v>
@@ -13034,10 +13034,10 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C433" s="1">
         <v>44363</v>
@@ -13063,10 +13063,10 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C434" s="1">
         <v>44364</v>
@@ -13092,10 +13092,10 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C435" s="1">
         <v>44365</v>
@@ -13121,10 +13121,10 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C436" s="1">
         <v>44366</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C437" s="1">
         <v>44367</v>
@@ -13179,10 +13179,10 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C438" s="1">
         <v>44368</v>
@@ -13208,10 +13208,10 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C439" s="1">
         <v>44369</v>
@@ -13237,10 +13237,10 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C440" s="1">
         <v>44370</v>
@@ -13266,10 +13266,10 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C441" s="1">
         <v>44371</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C442" s="1">
         <v>44372</v>
@@ -13324,10 +13324,10 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C443" s="1">
         <v>44373</v>
@@ -13353,10 +13353,10 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C444" s="1">
         <v>44374</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C445" s="1">
         <v>44375</v>
@@ -13411,10 +13411,10 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C446" s="1">
         <v>44376</v>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C447" s="1">
         <v>44377</v>
@@ -13469,10 +13469,10 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C448" s="1">
         <v>44378</v>
@@ -13498,10 +13498,10 @@
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C449" s="1">
         <v>44379</v>
@@ -13527,10 +13527,10 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C450" s="1">
         <v>44380</v>
@@ -13556,10 +13556,10 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C451" s="1">
         <v>44381</v>
@@ -13585,10 +13585,10 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C452" s="1">
         <v>44382</v>
@@ -13614,10 +13614,10 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C453" s="1">
         <v>44383</v>
